--- a/exceltestdata/TC001.xlsx
+++ b/exceltestdata/TC001.xlsx
@@ -8,24 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Eclipse\eclipse-workspace\MavenProject\exceltestdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB287B1C-9F74-4E5E-B207-BCE338D64A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B0C47D8-07EE-478A-A692-DF72BBE83583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5115" yWindow="3015" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>AccountTitle</t>
   </si>
@@ -33,23 +41,37 @@
     <t>Salesforce Automation by KSK</t>
   </si>
   <si>
-    <t>KSK</t>
-  </si>
-  <si>
     <t>Salesforce Automation by Sankarakarthikeyan</t>
   </si>
   <si>
-    <t>Sankarakarthikeyan</t>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>India$321</t>
+  </si>
+  <si>
+    <t>hari.radhakrishnan@qeagle.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -72,13 +94,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -357,42 +382,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.5703125" customWidth="1"/>
+    <col min="3" max="3" width="47.5703125" customWidth="1"/>
+    <col min="4" max="4" width="41.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="str">
+        <f>"Opportunity """&amp;C2&amp;""" was created."</f>
+        <v>Opportunity "Salesforce Automation by KSK" was created.</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
+      <c r="D3" t="str">
+        <f>"Opportunity """&amp;C3&amp;""" was created."</f>
+        <v>Opportunity "Salesforce Automation by Sankarakarthikeyan" was created.</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{F0601F4B-7AFA-40FA-96DD-FB326B71DB8C}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{D7D1A813-B342-4130-A7B9-7170460A82FF}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/exceltestdata/TC001.xlsx
+++ b/exceltestdata/TC001.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Eclipse\eclipse-workspace\MavenProject\exceltestdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B0C47D8-07EE-478A-A692-DF72BBE83583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC81DF78-6BC5-41CD-8EE3-5E2E62A28F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="3015" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,10 +50,10 @@
     <t>password</t>
   </si>
   <si>
-    <t>India$321</t>
-  </si>
-  <si>
     <t>hari.radhakrishnan@qeagle.com</t>
+  </si>
+  <si>
+    <t>India$4321</t>
   </si>
 </sst>
 </file>
@@ -385,7 +385,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -410,10 +410,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -425,10 +425,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>

--- a/exceltestdata/TC001.xlsx
+++ b/exceltestdata/TC001.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Eclipse\eclipse-workspace\MavenProject\exceltestdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC81DF78-6BC5-41CD-8EE3-5E2E62A28F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EECA046F-C6B9-465F-A6F5-3732B5E47AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,7 +53,7 @@
     <t>hari.radhakrishnan@qeagle.com</t>
   </si>
   <si>
-    <t>India$4321</t>
+    <t>Testleaf$321</t>
   </si>
 </sst>
 </file>
